--- a/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
+++ b/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45607</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45635</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -477,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,17 +635,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45597</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45627</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>12</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
+++ b/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -703,6 +704,425 @@
       </c>
       <c r="B10" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.7158664843233</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.16542472871372</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-18.99572228883279</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.13792218266335</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-17.76603017529434</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68.09339095020984</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-18.24042704514262</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.17618880475422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-19.38011486304048</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69.75232174194585</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-16.43882613197266</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.78863551678161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-15.62413630091297</v>
+      </c>
+      <c r="D8" t="n">
+        <v>73.04120487178982</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.51698442554778</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.18645627003768</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-14.26574581603047</v>
+      </c>
+      <c r="D10" t="n">
+        <v>77.32793492744558</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.91545283230738</v>
+      </c>
+      <c r="D11" t="n">
+        <v>74.00493938136241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-12.70755795373577</v>
+      </c>
+      <c r="D12" t="n">
+        <v>71.82949615960599</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.34820661982495</v>
+      </c>
+      <c r="D13" t="n">
+        <v>74.15787693841337</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-10.08592353450919</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76.39589642272736</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.59862143221971</v>
+      </c>
+      <c r="D15" t="n">
+        <v>75.42247980902873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.14477219577557</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74.76423138825974</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.667329815069493</v>
+      </c>
+      <c r="D17" t="n">
+        <v>77.14738994749501</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-11.2669007853591</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75.9689163751552</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>44</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.4048742598760813</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83.96287926987776</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>45</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.01272273653262</v>
+      </c>
+      <c r="D20" t="n">
+        <v>87.47160815754653</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>45</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7139054043507204</v>
+      </c>
+      <c r="D21" t="n">
+        <v>87.40300316166268</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.452761518380349</v>
+      </c>
+      <c r="D22" t="n">
+        <v>87.97093590506938</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.174642053432746</v>
+      </c>
+      <c r="D23" t="n">
+        <v>89.01684690420548</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>46</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.083206700876225</v>
+      </c>
+      <c r="D24" t="n">
+        <v>86.2665212536115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>46</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.901309935539547</v>
+      </c>
+      <c r="D25" t="n">
+        <v>89.02139390584776</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>46</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.989686417798728</v>
+      </c>
+      <c r="D26" t="n">
+        <v>87.36375072997629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.927651652246611</v>
+      </c>
+      <c r="D27" t="n">
+        <v>87.56647361621589</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>47</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.02061590056212335</v>
+      </c>
+      <c r="D28" t="n">
+        <v>88.76452284197958</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
+++ b/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,16 +736,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -754,12 +744,6 @@
       <c r="B2" t="n">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>-19.7158664843233</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67.16542472871372</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -768,12 +752,6 @@
       <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="n">
-        <v>-18.99572228883279</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.13792218266335</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -782,12 +760,6 @@
       <c r="B4" t="n">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
-        <v>-17.76603017529434</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68.09339095020984</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -796,12 +768,6 @@
       <c r="B5" t="n">
         <v>25</v>
       </c>
-      <c r="C5" t="n">
-        <v>-18.24042704514262</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67.17618880475422</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -810,12 +776,6 @@
       <c r="B6" t="n">
         <v>26</v>
       </c>
-      <c r="C6" t="n">
-        <v>-19.38011486304048</v>
-      </c>
-      <c r="D6" t="n">
-        <v>69.75232174194585</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -824,12 +784,6 @@
       <c r="B7" t="n">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
-        <v>-16.43882613197266</v>
-      </c>
-      <c r="D7" t="n">
-        <v>70.78863551678161</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -838,12 +792,6 @@
       <c r="B8" t="n">
         <v>30</v>
       </c>
-      <c r="C8" t="n">
-        <v>-15.62413630091297</v>
-      </c>
-      <c r="D8" t="n">
-        <v>73.04120487178982</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -852,12 +800,6 @@
       <c r="B9" t="n">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
-        <v>-12.51698442554778</v>
-      </c>
-      <c r="D9" t="n">
-        <v>74.18645627003768</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -866,12 +808,6 @@
       <c r="B10" t="n">
         <v>31</v>
       </c>
-      <c r="C10" t="n">
-        <v>-14.26574581603047</v>
-      </c>
-      <c r="D10" t="n">
-        <v>77.32793492744558</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -880,12 +816,6 @@
       <c r="B11" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
-        <v>-12.91545283230738</v>
-      </c>
-      <c r="D11" t="n">
-        <v>74.00493938136241</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -894,12 +824,6 @@
       <c r="B12" t="n">
         <v>31</v>
       </c>
-      <c r="C12" t="n">
-        <v>-12.70755795373577</v>
-      </c>
-      <c r="D12" t="n">
-        <v>71.82949615960599</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -908,12 +832,6 @@
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
-        <v>-11.34820661982495</v>
-      </c>
-      <c r="D13" t="n">
-        <v>74.15787693841337</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -922,12 +840,6 @@
       <c r="B14" t="n">
         <v>32</v>
       </c>
-      <c r="C14" t="n">
-        <v>-10.08592353450919</v>
-      </c>
-      <c r="D14" t="n">
-        <v>76.39589642272736</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -936,12 +848,6 @@
       <c r="B15" t="n">
         <v>32</v>
       </c>
-      <c r="C15" t="n">
-        <v>-13.59862143221971</v>
-      </c>
-      <c r="D15" t="n">
-        <v>75.42247980902873</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -950,12 +856,6 @@
       <c r="B16" t="n">
         <v>32</v>
       </c>
-      <c r="C16" t="n">
-        <v>-11.14477219577557</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74.76423138825974</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -964,12 +864,6 @@
       <c r="B17" t="n">
         <v>32</v>
       </c>
-      <c r="C17" t="n">
-        <v>-8.667329815069493</v>
-      </c>
-      <c r="D17" t="n">
-        <v>77.14738994749501</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -978,12 +872,6 @@
       <c r="B18" t="n">
         <v>33</v>
       </c>
-      <c r="C18" t="n">
-        <v>-11.2669007853591</v>
-      </c>
-      <c r="D18" t="n">
-        <v>75.9689163751552</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -992,12 +880,6 @@
       <c r="B19" t="n">
         <v>44</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.4048742598760813</v>
-      </c>
-      <c r="D19" t="n">
-        <v>83.96287926987776</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1006,12 +888,6 @@
       <c r="B20" t="n">
         <v>45</v>
       </c>
-      <c r="C20" t="n">
-        <v>3.01272273653262</v>
-      </c>
-      <c r="D20" t="n">
-        <v>87.47160815754653</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1020,12 +896,6 @@
       <c r="B21" t="n">
         <v>45</v>
       </c>
-      <c r="C21" t="n">
-        <v>-0.7139054043507204</v>
-      </c>
-      <c r="D21" t="n">
-        <v>87.40300316166268</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1034,12 +904,6 @@
       <c r="B22" t="n">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.452761518380349</v>
-      </c>
-      <c r="D22" t="n">
-        <v>87.97093590506938</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1048,12 +912,6 @@
       <c r="B23" t="n">
         <v>45</v>
       </c>
-      <c r="C23" t="n">
-        <v>2.174642053432746</v>
-      </c>
-      <c r="D23" t="n">
-        <v>89.01684690420548</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1062,12 +920,6 @@
       <c r="B24" t="n">
         <v>46</v>
       </c>
-      <c r="C24" t="n">
-        <v>2.083206700876225</v>
-      </c>
-      <c r="D24" t="n">
-        <v>86.2665212536115</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1076,12 +928,6 @@
       <c r="B25" t="n">
         <v>46</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.901309935539547</v>
-      </c>
-      <c r="D25" t="n">
-        <v>89.02139390584776</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1090,12 +936,6 @@
       <c r="B26" t="n">
         <v>46</v>
       </c>
-      <c r="C26" t="n">
-        <v>6.989686417798728</v>
-      </c>
-      <c r="D26" t="n">
-        <v>87.36375072997629</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1104,12 +944,6 @@
       <c r="B27" t="n">
         <v>46</v>
       </c>
-      <c r="C27" t="n">
-        <v>2.927651652246611</v>
-      </c>
-      <c r="D27" t="n">
-        <v>87.56647361621589</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1117,12 +951,6 @@
       </c>
       <c r="B28" t="n">
         <v>47</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.02061590056212335</v>
-      </c>
-      <c r="D28" t="n">
-        <v>88.76452284197958</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
+++ b/po_analysis_by_asin/B09S5ZZ5V7_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -614,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,6 +730,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -717,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +774,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +782,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +790,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +798,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -774,7 +806,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -782,7 +814,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +822,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -798,7 +830,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +838,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -814,7 +846,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -822,7 +854,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -830,7 +862,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -838,7 +870,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -846,7 +878,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -854,7 +886,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +894,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -870,7 +902,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -878,7 +910,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -886,71 +918,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
